--- a/extraction/coral dataset/coral/raw extraction/howe_2001/howe2001.xlsx
+++ b/extraction/coral dataset/coral/raw extraction/howe_2001/howe2001.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/margaretslein/lichen/extraction/coral dataset/raw extraction/howe_2001/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/margaretslein/lichen/extraction/coral dataset/coral/raw extraction/howe_2001/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A6A9B70-3A09-8B41-9B4B-401ECF24EA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7215C0-112C-9640-BC38-303757509358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="500" windowWidth="27240" windowHeight="15800" activeTab="1" xr2:uid="{4A86BE66-F799-464E-96C7-8E7DB82BD8AC}"/>
+    <workbookView xWindow="13220" yWindow="500" windowWidth="27240" windowHeight="15800" activeTab="1" xr2:uid="{4A86BE66-F799-464E-96C7-8E7DB82BD8AC}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
     <sheet name="cleaned" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="18">
   <si>
     <t>x</t>
   </si>
@@ -97,9 +97,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -136,10 +133,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2387,10 +2385,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B06CF7-F6B6-3E46-91AE-B907CAC86ED0}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E27"/>
+      <selection activeCell="C11" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2417,13 +2415,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>10</v>
+        <v>10.006139345076299</v>
       </c>
       <c r="B2" s="1">
-        <v>9.95436196</v>
+        <v>1.5968075405602999</v>
       </c>
       <c r="C2" s="1">
-        <v>0.21428570999999999</v>
+        <v>0.22311102283294504</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
@@ -2437,13 +2435,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>12.8061224</v>
+        <v>12.8025207428607</v>
       </c>
       <c r="B3" s="1">
-        <v>10.9387475</v>
+        <v>2.6035879054901998</v>
       </c>
       <c r="C3" s="1">
-        <v>0.24725274999999999</v>
+        <v>0.24615162376648492</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -2457,13 +2455,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>15.4846939</v>
+        <v>15.511326188820901</v>
       </c>
       <c r="B4" s="1">
-        <v>14.0497169</v>
+        <v>5.7644838887333902</v>
       </c>
       <c r="C4" s="1">
-        <v>0.24725274999999999</v>
+        <v>0.26153610025189522</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -2477,13 +2475,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>18.290816299999999</v>
+        <v>18.300259116475999</v>
       </c>
       <c r="B5" s="1">
-        <v>12.5615749</v>
+        <v>4.2328256335713803</v>
       </c>
       <c r="C5" s="1">
-        <v>0.30494505</v>
+        <v>0.3076895297081097</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
@@ -2497,13 +2495,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>20.9693878</v>
+        <v>20.9983658507958</v>
       </c>
       <c r="B6" s="1">
-        <v>12.0791377</v>
+        <v>3.7476006897734702</v>
       </c>
       <c r="C6" s="1">
-        <v>0.36263736000000002</v>
+        <v>0.36153519740703</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
@@ -2517,13 +2515,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>10</v>
+        <v>9.9810402578524897</v>
       </c>
       <c r="B7" s="1">
-        <v>9.3939223999999992</v>
+        <v>1.04303861467484</v>
       </c>
       <c r="C7" s="1">
-        <v>0.11538461999999999</v>
+        <v>6.1537905941620952E-2</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
@@ -2537,13 +2535,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>12.8061224</v>
+        <v>12.8231958902501</v>
       </c>
       <c r="B8" s="1">
-        <v>9.9827035199999994</v>
+        <v>1.64967813580592</v>
       </c>
       <c r="C8" s="1">
-        <v>0.16483516000000001</v>
+        <v>0.16922924133946005</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -2557,13 +2555,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>15.510204099999999</v>
+        <v>15.502252597936</v>
       </c>
       <c r="B9" s="1">
-        <v>11.016707800000001</v>
+        <v>2.6722041151668798</v>
       </c>
       <c r="C9" s="1">
-        <v>0.12362637</v>
+        <v>0.11538357364053997</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -2577,13 +2575,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>18.290816299999999</v>
+        <v>18.318722293948198</v>
       </c>
       <c r="B10" s="1">
-        <v>10.8802562</v>
+        <v>2.5250765161022302</v>
       </c>
       <c r="C10" s="1">
-        <v>0.13186813</v>
+        <v>0.12307581188324512</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
@@ -2596,14 +2594,14 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>20.9693878</v>
-      </c>
-      <c r="B11" s="1">
-        <v>10.298917899999999</v>
+      <c r="A11" s="3">
+        <v>20.9930390660972</v>
+      </c>
+      <c r="B11">
+        <v>1.9322324644956199</v>
       </c>
       <c r="C11" s="1">
-        <v>9.8901100000000006E-2</v>
+        <v>9.2306858912429957E-2</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -2612,326 +2610,6 @@
         <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1.05586592</v>
-      </c>
-      <c r="C12" s="1">
-        <v>6.7039109999999999E-2</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>12.798982199999999</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1.4581005600000001</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.10055865999999999</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>18.3206107</v>
-      </c>
-      <c r="B14" s="1">
-        <v>3.7709497199999999</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.10055865999999999</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>21.017811699999999</v>
-      </c>
-      <c r="B15" s="1">
-        <v>4.0893854699999999</v>
-      </c>
-      <c r="C15" s="1">
-        <v>8.3798880000000006E-2</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>10</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1.17318436</v>
-      </c>
-      <c r="C16" s="1">
-        <v>8.3798880000000006E-2</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>12.798982199999999</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1.0893854700000001</v>
-      </c>
-      <c r="C17" s="1">
-        <v>6.7039109999999999E-2</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>18.3206107</v>
-      </c>
-      <c r="B18" s="1">
-        <v>2.2290502800000001</v>
-      </c>
-      <c r="C18" s="1">
-        <v>6.7039109999999999E-2</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>21.017811699999999</v>
-      </c>
-      <c r="B19" s="1">
-        <v>2.5642458100000001</v>
-      </c>
-      <c r="C19" s="1">
-        <v>8.3798880000000006E-2</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>10.004671800000001</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0.62964564000000001</v>
-      </c>
-      <c r="C20" s="1">
-        <v>8.2418729999999996E-2</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>12.775182300000001</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1.5783396300000001</v>
-      </c>
-      <c r="C21" s="1">
-        <v>9.0660599999999994E-2</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>18.3167613</v>
-      </c>
-      <c r="B22" s="1">
-        <v>3.6075975800000002</v>
-      </c>
-      <c r="C22" s="1">
-        <v>9.0660599999999994E-2</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>20.982191400000001</v>
-      </c>
-      <c r="B23" s="1">
-        <v>3.7152858200000001</v>
-      </c>
-      <c r="C23" s="1">
-        <v>9.8902480000000001E-2</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>10.0069728</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1.17360927</v>
-      </c>
-      <c r="C24" s="1">
-        <v>8.2418729999999996E-2</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>12.7743456</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1.38053468</v>
-      </c>
-      <c r="C25" s="1">
-        <v>8.2418729999999996E-2</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>18.310834400000001</v>
-      </c>
-      <c r="B26" s="1">
-        <v>2.2064791399999999</v>
-      </c>
-      <c r="C26" s="1">
-        <v>8.2418729999999996E-2</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>21.001575899999999</v>
-      </c>
-      <c r="B27" s="1">
-        <v>2.2977672999999998</v>
-      </c>
-      <c r="C27" s="1">
-        <v>9.0660599999999994E-2</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="1" t="s">
         <v>9</v>
       </c>
     </row>
